--- a/TestcaseLoginGmail.xlsx
+++ b/TestcaseLoginGmail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\autotest\Code\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\autotest\Code\keywordDriven_LoginGmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>https://accounts.google.com/signin/v2/identifier?flowName=GlifWebSignIn&amp;flowEntry=ServiceLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify url display </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login successful with username and password </t>
   </si>
 </sst>
 </file>
@@ -373,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +724,7 @@
     </row>
     <row r="2" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -777,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -800,7 +806,7 @@
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -861,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -883,10 +889,10 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
@@ -907,7 +913,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
@@ -928,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -950,10 +956,10 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
@@ -974,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="6" t="s">
         <v>40</v>
       </c>
@@ -989,13 +995,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1146,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1169,7 +1175,7 @@
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>

--- a/TestcaseLoginGmail.xlsx
+++ b/TestcaseLoginGmail.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>TCID</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Login successful with username and password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify error message when input wrong email </t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +931,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>38</v>
